--- a/data/Subset2_WithDialogActs/Talkback.Year1.Strathom.Fall.121119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/Talkback.Year1.Strathom.Fall.121119.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1429,12 +1429,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2725,12 +2725,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5887,12 +5887,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7297,12 +7297,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7789,12 +7789,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9271,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10803,12 +10803,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11837,12 +11837,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12217,12 +12217,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12293,12 +12293,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12369,12 +12369,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12521,12 +12521,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12977,12 +12977,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13319,12 +13319,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13509,12 +13509,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13927,12 +13927,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14615,12 +14615,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14881,12 +14881,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14919,12 +14919,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15109,12 +15109,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15261,12 +15261,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15451,12 +15451,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15683,12 +15683,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15987,12 +15987,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16443,12 +16443,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16671,12 +16671,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16747,12 +16747,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16861,12 +16861,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17051,12 +17051,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17203,12 +17203,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17507,12 +17507,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17549,12 +17549,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17663,12 +17663,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17705,12 +17705,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17743,12 +17743,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18047,12 +18047,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18237,12 +18237,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18807,12 +18807,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18997,12 +18997,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19035,12 +19035,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19187,12 +19187,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19529,12 +19529,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20023,12 +20023,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21213,12 +21213,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21597,12 +21597,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21673,12 +21673,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21943,12 +21943,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21981,12 +21981,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22057,12 +22057,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22251,12 +22251,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22441,12 +22441,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22479,12 +22479,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22635,12 +22635,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22711,12 +22711,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23285,12 +23285,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
